--- a/programacion_lineal.xlsx
+++ b/programacion_lineal.xlsx
@@ -8,133 +8,239 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salacomputocentro.ba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CB8F89-FED3-44F4-A1DF-BB3D66F35672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437C1A1-1FC2-4E2B-AAA4-172A766EDAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BD3AB2D4-14D9-4586-9987-A97B3535FDE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{BD3AB2D4-14D9-4586-9987-A97B3535FDE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Ejemplo 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Ejemplo 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Ejemplo 6" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Ejemplo 4'!$C$11:$C$12</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Ejemplo 5'!$C$9:$C$11</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Hoja1!$D$12:$D$13</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Hoja2!$C$7:$C$8</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Hoja3!$C$3:$E$5</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Hoja4!$C$9:$C$11</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Ejemplo 4'!$C$11:$C$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Ejemplo 5'!$K$4:$K$6</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Hoja1!$J$5</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Hoja2!$C$7:$C$8</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Hoja3!$C$6:$E$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Hoja4!$C$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Ejemplo 4'!$I$5:$I$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Ejemplo 5'!$K$4:$K$6</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Hoja1!$J$6</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Hoja2!$I$3:$I$5</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Hoja3!$F$3:$F$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Hoja4!$C$9:$C$11</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Hoja1!$J$7</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">Hoja3!$J$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Hoja4!$K$4:$K$6</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Hoja1!$J$7</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">Hoja3!$J$18</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">Hoja3!$J$21</definedName>
     <definedName name="solver_lhs6" localSheetId="2" hidden="1">Hoja3!$M$3:$M$5</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Ejemplo 4'!$C$14</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Ejemplo 5'!$C$13</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Hoja1!$D$15</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Hoja2!$E$8</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Hoja3!$G$9</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Hoja4!$H$10</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">"entero"</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'Ejemplo 5'!$L$4:$L$6</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Hoja1!$K$5</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">"entero"</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">Hoja3!$C$7:$E$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Hoja4!$D$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'Ejemplo 4'!$J$5:$J$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Ejemplo 5'!$L$4:$L$6</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Hoja1!$K$6</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">Hoja2!$J$3:$J$5</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">Hoja3!$G$3:$G$5</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">"entero"</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Hoja1!$K$7</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">Hoja3!$K$15</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Hoja4!$L$4:$L$6</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Hoja1!$K$7</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">Hoja3!$K$18</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">Hoja3!$K$21</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">Hoja3!$N$3:$N$5</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -155,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
   <si>
     <t>Planta</t>
   </si>
@@ -233,6 +339,69 @@
   </si>
   <si>
     <t>%k2 = %k3</t>
+  </si>
+  <si>
+    <t>Fresadora</t>
+  </si>
+  <si>
+    <t>Torno</t>
+  </si>
+  <si>
+    <t>Rectificadora</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Requerimientos</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Insumo</t>
+  </si>
+  <si>
+    <t>Harina</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Horas/Hombre</t>
+  </si>
+  <si>
+    <t>Panes</t>
+  </si>
+  <si>
+    <t>Salchichas</t>
+  </si>
+  <si>
+    <t>Carbohidratos</t>
+  </si>
+  <si>
+    <t>Proteína</t>
+  </si>
+  <si>
+    <t>Vitaminas</t>
+  </si>
+  <si>
+    <t>Ingredientes</t>
+  </si>
+  <si>
+    <t>Maiz</t>
+  </si>
+  <si>
+    <t>Nutrimiento</t>
+  </si>
+  <si>
+    <t>Alfalfa</t>
+  </si>
+  <si>
+    <t>Requerimiento</t>
+  </si>
+  <si>
+    <t>Minimo</t>
   </si>
 </sst>
 </file>
@@ -327,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,12 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,6 +540,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,10 +894,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -726,10 +913,10 @@
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -912,7 +1099,7 @@
   <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,30 +1108,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="8">
@@ -953,7 +1140,7 @@
       <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8">
@@ -973,7 +1160,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8">
@@ -982,7 +1169,7 @@
       <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="8">
@@ -1002,7 +1189,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8">
@@ -1011,7 +1198,7 @@
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="8">
@@ -1031,21 +1218,21 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="7">
@@ -1066,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2328AF73-30CA-488B-B92D-1D14139ECE6B}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1076,42 +1263,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="7">
@@ -1130,7 +1317,7 @@
       <c r="G3" s="7">
         <v>400</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="7">
@@ -1154,7 +1341,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="7">
@@ -1173,7 +1360,7 @@
       <c r="G4" s="7">
         <v>600</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="7">
@@ -1197,7 +1384,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="7">
@@ -1216,7 +1403,7 @@
       <c r="G5" s="7">
         <v>300</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="7">
@@ -1240,7 +1427,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7">
@@ -1257,15 +1444,15 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="7">
@@ -1279,28 +1466,28 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="8">
         <f>(1000*C6)+(750*D6)+(250*E6)</f>
         <v>633333.33333333349</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="7">
@@ -1308,7 +1495,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="7">
@@ -1316,7 +1503,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="7">
@@ -1324,55 +1511,55 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="18"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <f>F3/G3</f>
         <v>0.58333333333333348</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <f>F4/G4</f>
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <f>F3/G3</f>
         <v>0.58333333333333348</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="15">
         <f>F5/G5</f>
         <v>0.58333333333333348</v>
       </c>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="18"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J21" s="17">
+      <c r="J21" s="15">
         <f>F4/G4</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="15">
         <f>F5/G5</f>
         <v>0.58333333333333348</v>
       </c>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="20"/>
+      <c r="G23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1383,4 +1570,638 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67760DC-0F2D-4BB1-A822-22E04EE5422B}">
+  <dimension ref="B2:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8">
+        <f>C9*C4</f>
+        <v>234</v>
+      </c>
+      <c r="I4" s="8">
+        <f>C10*D4</f>
+        <v>165</v>
+      </c>
+      <c r="J4" s="8">
+        <f>C11*E4</f>
+        <v>100</v>
+      </c>
+      <c r="K4" s="7">
+        <f>SUM(H4:J4)</f>
+        <v>499</v>
+      </c>
+      <c r="L4" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="8">
+        <f>C9*C5</f>
+        <v>130</v>
+      </c>
+      <c r="I5" s="8">
+        <f>C10*D5</f>
+        <v>220</v>
+      </c>
+      <c r="J5" s="8">
+        <f>C11*E5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:K6" si="0">SUM(H5:J5)</f>
+        <v>350</v>
+      </c>
+      <c r="L5" s="8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="8">
+        <f>C9*C6</f>
+        <v>78</v>
+      </c>
+      <c r="I6" s="8">
+        <f>C10*D6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <f>C11*E6</f>
+        <v>60</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="L6" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8">
+        <f>(50*C9)+(20*C10)+(25*C11)</f>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17F753C-B35F-4C0A-AB75-43D01B866E3A}">
+  <dimension ref="B3:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8">
+        <f>C11*C5</f>
+        <v>120</v>
+      </c>
+      <c r="H5" s="8">
+        <f>C12*D5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <f>SUM(G5:H5)</f>
+        <v>120</v>
+      </c>
+      <c r="J5" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8">
+        <f>C12*C6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <f>C12*D6</f>
+        <v>800</v>
+      </c>
+      <c r="I6" s="8">
+        <f>SUM(G6:H6)</f>
+        <v>800</v>
+      </c>
+      <c r="J6" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8">
+        <f>2/60</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <f>3/60</f>
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="8">
+        <f>C11*C7</f>
+        <v>40</v>
+      </c>
+      <c r="H7" s="8">
+        <f>C12*D7</f>
+        <v>160</v>
+      </c>
+      <c r="I7" s="8">
+        <f>SUM(G7:H7)</f>
+        <v>200</v>
+      </c>
+      <c r="J7" s="8">
+        <f>5*40</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
+        <f>(0.8*C12)+(0.3*C11)</f>
+        <v>2920</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFEF75A-6392-4F37-A80C-86B80AAA6E89}">
+  <dimension ref="B2:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="8">
+        <v>90</v>
+      </c>
+      <c r="D4" s="8">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8">
+        <v>40</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="8">
+        <f>C9*C4</f>
+        <v>102.85714285714285</v>
+      </c>
+      <c r="I4" s="8">
+        <f>C10*D4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <f>C11*E4</f>
+        <v>97.142857142857139</v>
+      </c>
+      <c r="K4" s="8">
+        <f>SUM(H4:J4)</f>
+        <v>200</v>
+      </c>
+      <c r="L4" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8">
+        <v>80</v>
+      </c>
+      <c r="E5" s="8">
+        <v>60</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="8">
+        <f>C9*C5</f>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="I5" s="8">
+        <f>C10*D5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <f>C11*E5</f>
+        <v>145.71428571428569</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K6" si="0">SUM(H5:J5)</f>
+        <v>179.99999999999997</v>
+      </c>
+      <c r="L5" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8">
+        <v>60</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="8">
+        <f>C9*C6</f>
+        <v>11.428571428571427</v>
+      </c>
+      <c r="I6" s="8">
+        <f>C10*D6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <f>C11*E6</f>
+        <v>145.71428571428569</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>157.14285714285711</v>
+      </c>
+      <c r="L6" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <f>(0.84*C9)+(0.72*C10)+(0.6*C11)</f>
+        <v>2.4171428571428573</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC577F0-F2E5-404C-8DE3-2EB16B15CABD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>